--- a/game_data_final/Olympicos - Pro Recco.xlsx
+++ b/game_data_final/Olympicos - Pro Recco.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
   <si>
     <t>Number of Passes</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Kickout Position</t>
+  </si>
+  <si>
+    <t>End 3-3</t>
   </si>
   <si>
     <t>5m</t>
@@ -302,9 +305,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -334,14 +334,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -451,14 +448,14 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2">
-        <v>43527.0</v>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -466,7 +463,7 @@
         <v>5.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>4.0</v>
@@ -481,7 +478,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="1">
         <v>0.0</v>
@@ -490,10 +487,10 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1">
         <v>5.0</v>
@@ -505,7 +502,7 @@
         <v>0.0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1">
         <v>0.0</v>
@@ -513,10 +510,10 @@
       <c r="T2" s="1">
         <v>1.0</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="3">
         <v>0.21597222222222223</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="3">
         <v>0.2</v>
       </c>
       <c r="W2" s="1">
@@ -531,8 +528,8 @@
       <c r="Z2" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>31</v>
+      <c r="AA2" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +537,7 @@
         <v>6.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>2.0</v>
@@ -555,7 +552,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1">
         <v>0.0</v>
@@ -564,10 +561,10 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N3" s="1">
         <v>1.0</v>
@@ -576,13 +573,13 @@
         <v>1.0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="1">
         <v>0.0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" s="1">
         <v>0.0</v>
@@ -590,10 +587,10 @@
       <c r="T3" s="1">
         <v>1.0</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>0.1840277777777778</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>0.17222222222222222</v>
       </c>
       <c r="W3" s="1">
@@ -608,8 +605,8 @@
       <c r="Z3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA3" s="5" t="s">
-        <v>36</v>
+      <c r="AA3" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -617,7 +614,7 @@
         <v>10.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
         <v>4.0</v>
@@ -632,7 +629,7 @@
         <v>1.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1">
         <v>0.0</v>
@@ -641,10 +638,10 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1">
         <v>5.0</v>
@@ -653,13 +650,13 @@
         <v>1.0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="1">
         <v>1.0</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="1">
         <v>0.0</v>
@@ -667,10 +664,10 @@
       <c r="T4" s="1">
         <v>1.0</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>0.12569444444444444</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>0.11180555555555556</v>
       </c>
       <c r="W4" s="1">
@@ -685,8 +682,8 @@
       <c r="Z4" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA4" s="5" t="s">
-        <v>40</v>
+      <c r="AA4" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -694,7 +691,7 @@
         <v>5.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1">
         <v>2.0</v>
@@ -709,7 +706,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>0.0</v>
@@ -718,10 +715,10 @@
         <v>0.0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1">
         <v>4.0</v>
@@ -730,13 +727,13 @@
         <v>1.0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="1">
         <v>1.0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S5" s="1">
         <v>0.0</v>
@@ -744,10 +741,10 @@
       <c r="T5" s="1">
         <v>1.0</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>0.09305555555555556</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>0.07777777777777778</v>
       </c>
       <c r="W5" s="1">
@@ -762,8 +759,8 @@
       <c r="Z5" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA5" s="5" t="s">
-        <v>43</v>
+      <c r="AA5" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +768,7 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1">
         <v>2.0</v>
@@ -786,7 +783,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1">
         <v>0.0</v>
@@ -795,10 +792,10 @@
         <v>0.0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" s="1">
         <v>6.0</v>
@@ -807,13 +804,13 @@
         <v>1.0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="1">
         <v>0.0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S6" s="1">
         <v>0.0</v>
@@ -821,10 +818,10 @@
       <c r="T6" s="1">
         <v>1.0</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>0.035416666666666666</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>0.029166666666666667</v>
       </c>
       <c r="W6" s="1">
@@ -839,8 +836,8 @@
       <c r="Z6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA6" s="5" t="s">
-        <v>47</v>
+      <c r="AA6" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -848,7 +845,7 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1">
         <v>2.0</v>
@@ -863,7 +860,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1">
         <v>0.0</v>
@@ -872,10 +869,10 @@
         <v>0.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N7" s="1">
         <v>1.0</v>
@@ -887,7 +884,7 @@
         <v>0.0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S7" s="1">
         <v>0.0</v>
@@ -895,10 +892,10 @@
       <c r="T7" s="1">
         <v>2.0</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>0.2375</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>0.2263888888888889</v>
       </c>
       <c r="W7" s="1">
@@ -913,8 +910,8 @@
       <c r="Z7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>49</v>
+      <c r="AA7" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -922,7 +919,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1">
         <v>1.0</v>
@@ -937,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="1">
         <v>0.0</v>
@@ -946,10 +943,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N8" s="1">
         <v>4.0</v>
@@ -958,13 +955,13 @@
         <v>1.0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="1">
         <v>1.0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" s="1">
         <v>0.0</v>
@@ -972,10 +969,10 @@
       <c r="T8" s="1">
         <v>2.0</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>0.19722222222222222</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>0.18541666666666667</v>
       </c>
       <c r="W8" s="1">
@@ -990,8 +987,8 @@
       <c r="Z8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>52</v>
+      <c r="AA8" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +996,7 @@
         <v>2.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1">
         <v>1.0</v>
@@ -1014,7 +1011,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="1">
         <v>0.0</v>
@@ -1023,10 +1020,10 @@
         <v>0.0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N9" s="1">
         <v>5.0</v>
@@ -1035,13 +1032,13 @@
         <v>1.0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="1">
         <v>0.0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S9" s="1">
         <v>0.0</v>
@@ -1049,10 +1046,10 @@
       <c r="T9" s="1">
         <v>2.0</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>0.18541666666666667</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>0.18333333333333332</v>
       </c>
       <c r="W9" s="1">
@@ -1067,8 +1064,8 @@
       <c r="Z9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA9" s="5" t="s">
-        <v>56</v>
+      <c r="AA9" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1073,7 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1">
         <v>4.0</v>
@@ -1091,7 +1088,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1">
         <v>0.0</v>
@@ -1100,10 +1097,10 @@
         <v>0.0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" s="1">
         <v>5.0</v>
@@ -1112,13 +1109,13 @@
         <v>1.0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="1">
         <v>0.0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S10" s="1">
         <v>0.0</v>
@@ -1126,10 +1123,10 @@
       <c r="T10" s="1">
         <v>2.0</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>0.15763888888888888</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>0.15069444444444444</v>
       </c>
       <c r="W10" s="1">
@@ -1144,8 +1141,8 @@
       <c r="Z10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA10" s="5" t="s">
-        <v>60</v>
+      <c r="AA10" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1153,7 +1150,7 @@
         <v>8.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1">
         <v>5.0</v>
@@ -1168,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1">
         <v>0.0</v>
@@ -1177,10 +1174,10 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N11" s="1">
         <v>4.0</v>
@@ -1189,13 +1186,13 @@
         <v>1.0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="1">
         <v>0.0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S11" s="1">
         <v>0.0</v>
@@ -1203,10 +1200,10 @@
       <c r="T11" s="1">
         <v>2.0</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>0.14166666666666666</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>0.12361111111111112</v>
       </c>
       <c r="W11" s="1">
@@ -1221,8 +1218,8 @@
       <c r="Z11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA11" s="5" t="s">
-        <v>64</v>
+      <c r="AA11" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1230,7 +1227,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1">
         <v>3.0</v>
@@ -1245,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1">
         <v>0.0</v>
@@ -1254,10 +1251,10 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N12" s="1">
         <v>4.0</v>
@@ -1266,13 +1263,13 @@
         <v>1.0</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="1">
         <v>1.0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S12" s="1">
         <v>0.0</v>
@@ -1280,10 +1277,10 @@
       <c r="T12" s="1">
         <v>2.0</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>0.11319444444444444</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>0.09791666666666667</v>
       </c>
       <c r="W12" s="1">
@@ -1298,8 +1295,8 @@
       <c r="Z12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA12" s="5" t="s">
-        <v>67</v>
+      <c r="AA12" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -1307,7 +1304,7 @@
         <v>0.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1">
         <v>2.0</v>
@@ -1322,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="1">
         <v>0.0</v>
@@ -1331,22 +1328,22 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="1">
         <v>0.0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S13" s="1">
         <v>0.0</v>
@@ -1354,10 +1351,10 @@
       <c r="T13" s="1">
         <v>2.0</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>0.09791666666666667</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>0.09722222222222222</v>
       </c>
       <c r="W13" s="1">
@@ -1372,8 +1369,8 @@
       <c r="Z13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA13" s="5" t="s">
-        <v>69</v>
+      <c r="AA13" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -1381,7 +1378,7 @@
         <v>6.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1">
         <v>4.0</v>
@@ -1396,7 +1393,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1">
         <v>0.0</v>
@@ -1405,10 +1402,10 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N14" s="1">
         <v>5.0</v>
@@ -1420,7 +1417,7 @@
         <v>0.0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S14" s="1">
         <v>0.0</v>
@@ -1428,10 +1425,10 @@
       <c r="T14" s="1">
         <v>2.0</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>0.049305555555555554</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>0.04097222222222222</v>
       </c>
       <c r="W14" s="1">
@@ -1446,8 +1443,8 @@
       <c r="Z14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA14" s="5" t="s">
-        <v>71</v>
+      <c r="AA14" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -1455,7 +1452,7 @@
         <v>6.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1">
         <v>4.0</v>
@@ -1470,7 +1467,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15" s="1">
         <v>0.0</v>
@@ -1479,10 +1476,10 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N15" s="1">
         <v>1.0</v>
@@ -1491,13 +1488,13 @@
         <v>1.0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="1">
         <v>0.0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S15" s="1">
         <v>0.0</v>
@@ -1505,10 +1502,10 @@
       <c r="T15" s="1">
         <v>3.0</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>0.2263888888888889</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>0.21388888888888888</v>
       </c>
       <c r="W15" s="1">
@@ -1523,8 +1520,8 @@
       <c r="Z15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA15" s="5" t="s">
-        <v>74</v>
+      <c r="AA15" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1529,7 @@
         <v>9.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1">
         <v>5.0</v>
@@ -1547,7 +1544,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1">
         <v>0.0</v>
@@ -1556,10 +1553,10 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N16" s="1">
         <v>6.0</v>
@@ -1568,13 +1565,13 @@
         <v>1.0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="1">
         <v>0.0</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S16" s="1">
         <v>0.0</v>
@@ -1582,10 +1579,10 @@
       <c r="T16" s="1">
         <v>3.0</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>0.20208333333333334</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>0.18958333333333333</v>
       </c>
       <c r="W16" s="1">
@@ -1600,8 +1597,8 @@
       <c r="Z16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA16" s="5" t="s">
-        <v>78</v>
+      <c r="AA16" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1609,7 +1606,7 @@
         <v>8.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D17" s="1">
         <v>3.0</v>
@@ -1624,7 +1621,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" s="1">
         <v>0.0</v>
@@ -1633,10 +1630,10 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N17" s="1">
         <v>1.0</v>
@@ -1648,7 +1645,7 @@
         <v>0.0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S17" s="1">
         <v>0.0</v>
@@ -1656,10 +1653,10 @@
       <c r="T17" s="1">
         <v>3.0</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>0.11875</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>0.10694444444444444</v>
       </c>
       <c r="W17" s="1">
@@ -1674,8 +1671,8 @@
       <c r="Z17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA17" s="5" t="s">
-        <v>80</v>
+      <c r="AA17" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1683,7 +1680,7 @@
         <v>8.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1">
         <v>6.0</v>
@@ -1698,7 +1695,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1">
         <v>1.0</v>
@@ -1707,10 +1704,10 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N18" s="1">
         <v>2.0</v>
@@ -1719,13 +1716,13 @@
         <v>1.0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="1">
         <v>0.0</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S18" s="1">
         <v>0.0</v>
@@ -1733,10 +1730,10 @@
       <c r="T18" s="1">
         <v>3.0</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>0.043055555555555555</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>0.03263888888888889</v>
       </c>
       <c r="W18" s="1">
@@ -1751,8 +1748,8 @@
       <c r="Z18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA18" s="5" t="s">
-        <v>83</v>
+      <c r="AA18" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -1760,7 +1757,7 @@
         <v>7.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1">
         <v>1.0</v>
@@ -1775,7 +1772,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I19" s="1">
         <v>0.0</v>
@@ -1784,10 +1781,10 @@
         <v>0.0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N19" s="1">
         <v>4.0</v>
@@ -1796,13 +1793,13 @@
         <v>1.0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="1">
         <v>0.0</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S19" s="1">
         <v>0.0</v>
@@ -1810,10 +1807,10 @@
       <c r="T19" s="1">
         <v>4.0</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="3">
         <v>0.29583333333333334</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <v>0.2791666666666667</v>
       </c>
       <c r="W19" s="1">
@@ -1828,8 +1825,8 @@
       <c r="Z19" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA19" s="5" t="s">
-        <v>85</v>
+      <c r="AA19" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -1837,7 +1834,7 @@
         <v>11.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1">
         <v>5.0</v>
@@ -1852,7 +1849,7 @@
         <v>1.0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I20" s="1">
         <v>0.0</v>
@@ -1861,10 +1858,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N20" s="1">
         <v>6.0</v>
@@ -1873,13 +1870,13 @@
         <v>0.0</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="1">
         <v>0.0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S20" s="1">
         <v>0.0</v>
@@ -1887,10 +1884,10 @@
       <c r="T20" s="1">
         <v>4.0</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="3">
         <v>0.2638888888888889</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="3">
         <v>0.25</v>
       </c>
       <c r="W20" s="1">
@@ -1905,8 +1902,8 @@
       <c r="Z20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA20" s="5" t="s">
-        <v>88</v>
+      <c r="AA20" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -1914,7 +1911,7 @@
         <v>8.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1">
         <v>4.0</v>
@@ -1929,7 +1926,7 @@
         <v>1.0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I21" s="1">
         <v>1.0</v>
@@ -1938,10 +1935,10 @@
         <v>0.0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N21" s="1">
         <v>5.0</v>
@@ -1950,13 +1947,13 @@
         <v>1.0</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q21" s="1">
         <v>1.0</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S21" s="1">
         <v>0.0</v>
@@ -1964,10 +1961,10 @@
       <c r="T21" s="1">
         <v>4.0</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="3">
         <v>0.18819444444444444</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="3">
         <v>0.17430555555555555</v>
       </c>
       <c r="W21" s="1">
@@ -1982,8 +1979,8 @@
       <c r="Z21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA21" s="5" t="s">
-        <v>91</v>
+      <c r="AA21" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -1991,7 +1988,7 @@
         <v>13.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1">
         <v>6.0</v>
@@ -2006,7 +2003,7 @@
         <v>1.0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1">
         <v>1.0</v>
@@ -2015,10 +2012,10 @@
         <v>0.0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N22" s="1">
         <v>1.0</v>
@@ -2027,13 +2024,13 @@
         <v>1.0</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="1">
         <v>0.0</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S22" s="1">
         <v>0.0</v>
@@ -2041,10 +2038,10 @@
       <c r="T22" s="1">
         <v>4.0</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="3">
         <v>0.12708333333333333</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="3">
         <v>0.11041666666666666</v>
       </c>
       <c r="W22" s="1">
@@ -2059,12 +2056,12 @@
       <c r="Z22" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA22" s="5" t="s">
-        <v>94</v>
+      <c r="AA22" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23">
-      <c r="U23" s="4"/>
+      <c r="U23" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
